--- a/sg02/Assets/Resources/Config/Excel/WeaponAnimations.xlsx
+++ b/sg02/Assets/Resources/Config/Excel/WeaponAnimations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="532">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,22 +119,2014 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>A1F10</t>
+  </si>
+  <si>
+    <t>A1H10002</t>
+  </si>
+  <si>
+    <t>A1L10</t>
+  </si>
+  <si>
+    <t>A1R10</t>
+  </si>
+  <si>
+    <t>A1W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2A10</t>
+  </si>
+  <si>
+    <t>A2A20</t>
+  </si>
+  <si>
+    <t>A2A30</t>
+  </si>
+  <si>
+    <t>A2A50</t>
+  </si>
+  <si>
+    <t>A2A60</t>
+  </si>
+  <si>
+    <t>A2D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>A1D10</t>
-  </si>
-  <si>
-    <t>A1F10</t>
-  </si>
-  <si>
-    <t>A1H10002</t>
-  </si>
-  <si>
-    <t>A1L10</t>
-  </si>
-  <si>
-    <t>A1R10</t>
-  </si>
-  <si>
-    <t>A1W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3A10</t>
+  </si>
+  <si>
+    <t>A3A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAH10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAW10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABA30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABA50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABH10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABW10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACH10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACW10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADW10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADH10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADA50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADA30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEA30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEA50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AED10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEH10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AER10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AEW10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHA30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHA50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHH10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AHW10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIA30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIA50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AID10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIH10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIW10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMA30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMA50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMH10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AML10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMW10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APH10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APW10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASA30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASA50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASH10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASW10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATA30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATA50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATH10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATW10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUA30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUA50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUH10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUW10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCA20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCA30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCA50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCH10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCL10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCW10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8A20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8A30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8A40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8A60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8D10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8F10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8H10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8L10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8R10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8W10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -177,82 +2169,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -272,7 +2202,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CBE9CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -551,216 +2481,1945 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="9" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="17" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:17" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" t="s">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>42</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>79</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>82</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>83</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>84</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>37</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>45</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>85</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>16</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>28</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>32</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>46</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>17</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>21</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>24</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>29</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>33</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>34</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>43</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>